--- a/po_analysis_by_asin/B0D9722196_po_data.xlsx
+++ b/po_analysis_by_asin/B0D9722196_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>20</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>22</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>

--- a/po_analysis_by_asin/B0D9722196_po_data.xlsx
+++ b/po_analysis_by_asin/B0D9722196_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -525,7 +526,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -559,6 +560,243 @@
       </c>
       <c r="B5" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7954742517349309</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.95388935517973</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.4518208260067587</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.76955866426955</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6504731851627906</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.05089570949595</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.630469695815297</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.14530178961112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-6.472520767281297</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.425753738007957</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-6.377707741838797</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.029930878234024</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-6.990414935327292</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.333017529419404</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-7.464346367183849</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.086450828425741</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.590510174291037</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.221806830418761</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.201233606931616</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.300375526523325</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-8.944274865370167</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.998359603408207</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-9.510109854880227</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.688761661503247</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-9.472000660268881</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.227279288543895</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-9.710426799744113</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.007441618911245</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D9722196_po_data.xlsx
+++ b/po_analysis_by_asin/B0D9722196_po_data.xlsx
@@ -573,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,16 +592,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -610,12 +600,6 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.7954742517349309</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.95388935517973</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -624,12 +608,6 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>-0.4518208260067587</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.76955866426955</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,12 +616,6 @@
       <c r="B4" t="n">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>-0.6504731851627906</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.05089570949595</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -652,12 +624,6 @@
       <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>-2.630469695815297</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.14530178961112</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -666,12 +632,6 @@
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>-6.472520767281297</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.425753738007957</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -680,12 +640,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>-6.377707741838797</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.029930878234024</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -694,12 +648,6 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>-6.990414935327292</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8.333017529419404</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -708,12 +656,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>-7.464346367183849</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.086450828425741</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -722,12 +664,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>-7.590510174291037</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7.221806830418761</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -736,12 +672,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>-8.201233606931616</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.300375526523325</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -750,12 +680,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>-8.944274865370167</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.998359603408207</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -764,12 +688,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>-9.510109854880227</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.688761661503247</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -778,12 +696,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>-9.472000660268881</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5.227279288543895</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -791,12 +703,6 @@
       </c>
       <c r="B15" t="n">
         <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-9.710426799744113</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.007441618911245</v>
       </c>
     </row>
   </sheetData>
